--- a/sampleData/user.xlsx
+++ b/sampleData/user.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project_27_8\n.05-docker-mongo-new-tech\sampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project_27_8\n.05-docker-mongo-new-tech\newtech\sampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ADC614-6516-47FF-A115-54ED4153701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A516EB7-B025-4EE7-9AF2-4887AB9D9EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{99344DFE-67DA-4994-AB7E-7D8955CF5774}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -276,6 +276,51 @@
   </si>
   <si>
     <t>20110371@student.hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Nguyễn Phúc Vinh</t>
+  </si>
+  <si>
+    <t>20110415@student.hcmute.edu.vn</t>
+  </si>
+  <si>
+    <t>0967853916</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Alex Sander</t>
+  </si>
+  <si>
+    <t>alexsander.newzealand@gmail.com</t>
+  </si>
+  <si>
+    <t>0967853917</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Hoàng Xuân Phúc</t>
+  </si>
+  <si>
+    <t>webdeveloper.wowivn@gmail.com</t>
+  </si>
+  <si>
+    <t>0967853918</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>18110CLST2</t>
   </si>
 </sst>
 </file>
@@ -659,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CA5367-B6F0-4760-9425-DAD77545A48A}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1401,6 +1446,123 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="1">
+        <v>32510</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="1">
+        <v>32511</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1">
+        <v>32512</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1411,7 +1573,7 @@
     <hyperlink ref="E6" r:id="rId5" display="mailto:18110010@student.hcmute.edu.vn" xr:uid="{38D99791-B939-4AD7-A266-78817F7A9664}"/>
     <hyperlink ref="E7" r:id="rId6" display="mailto:17110004@student.hcmute.edu.vn" xr:uid="{32383E41-0ABE-4430-BCF1-2B0F7BB75F28}"/>
     <hyperlink ref="E8" r:id="rId7" display="mailto:17110075@student.hcmute.edu.vn" xr:uid="{CBBA4722-140E-4A19-868E-3D09E71E37D3}"/>
-    <hyperlink ref="E9" r:id="rId8" display="mailto:17110139@student.hcmute.edu.vn" xr:uid="{C199D996-E98A-4CA9-81DD-8A27BA9CD821}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{C199D996-E98A-4CA9-81DD-8A27BA9CD821}"/>
     <hyperlink ref="E10" r:id="rId9" display="mailto:17110168@student.hcmute.edu.vn" xr:uid="{4E0F93C7-65B4-4C4D-99C0-0E13560AE271}"/>
     <hyperlink ref="E11" r:id="rId10" display="mailto:18110200@student.hcmute.edu.vn" xr:uid="{1C11AB22-43F8-4D05-9033-3BD1DAB7B672}"/>
     <hyperlink ref="E12" r:id="rId11" display="mailto:18110212@student.hcmute.edu.vn" xr:uid="{E4899507-3AB2-41C8-85CF-29E5F03B5276}"/>
@@ -1421,9 +1583,10 @@
     <hyperlink ref="E16" r:id="rId15" xr:uid="{4067EA86-2205-4B91-844C-BA8D64D8D19F}"/>
     <hyperlink ref="E17" r:id="rId16" xr:uid="{1F51B205-296E-491C-AB46-7367D3F6133D}"/>
     <hyperlink ref="E18" r:id="rId17" xr:uid="{5A3E3325-4B1E-43C2-9854-85A0AD7F337A}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{D37CC74F-BD76-4557-A42B-D02A2775D9A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
   <ignoredErrors>
     <ignoredError sqref="B13:B15" numberStoredAsText="1"/>
   </ignoredErrors>
